--- a/biology/Botanique/Sphaigne_du_Chili/Sphaigne_du_Chili.xlsx
+++ b/biology/Botanique/Sphaigne_du_Chili/Sphaigne_du_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphagnum cristatum
 La Sphaigne du Chili ou mousse de Nouvelle-Zélande (Sphagnum cristatum) est une espèce de  mousses de la famille des Sphagnaceae.
@@ -520,7 +532,9 @@
           <t>Les utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sphaigne du Chili a de nombreuses applications:
 Les industriels l'utilisent pour la fabrication de couches pour bébé ou de protections hygiéniques en raison de son fort pouvoir de rétention. La sphaigne pouvant retenir jusqu'à 20 fois son poids en eau.
